--- a/Analysis/Supplemenrary/Data/first_ranked_molprobity/GT.xlsx
+++ b/Analysis/Supplemenrary/Data/first_ranked_molprobity/GT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neginmanshour/Desktop/Protein_Peptide_Evaluation/Molprobity/Data/first_ranked/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neginmanshour/Desktop/PpEv/Analysis/Supplemenrary/Data/first_ranked_molprobity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563EAC1D-A086-6541-8483-7C5AE62BAE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD7BE5B-2E51-2E46-B8FA-66F339EB92B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="21520" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="81">
   <si>
     <t>Source File</t>
   </si>
@@ -248,6 +248,21 @@
   </si>
   <si>
     <t>Binding_Molprobity_TF_8hep.xlsx</t>
+  </si>
+  <si>
+    <t>Binding_Molprobity_TF_7xfg.xlsx</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>-0.82</t>
+  </si>
+  <si>
+    <t>0.10</t>
   </si>
 </sst>
 </file>
@@ -306,13 +321,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,15 +636,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="2" customWidth="1"/>
     <col min="3" max="16384" width="8.83203125" style="2"/>
   </cols>
@@ -2011,6 +2029,29 @@
         <v>-0.4</v>
       </c>
     </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="3">
+        <v>5.38</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
